--- a/va_facility_data_2025-02-20/Harrisonburg VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Harrisonburg%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Harrisonburg VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Harrisonburg%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R11160be60ea74894bfe01e79e9351098"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R8f1644e060dc44dea646d9b124bf4bbc"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R7d86dd0299c241a9aa2c766548e125e2"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rb9c4a6e74c9e4af4a5ba0716ace86cc9"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3419cf0cc4a34e3a8e4a9d31e0d513ff"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rf7bad55a0d0641a69c69b875ceddc442"/>
   </x:sheets>
 </x:workbook>
 </file>
